--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Section</t>
   </si>
@@ -31,6 +31,9 @@
     <t>total_price</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>AV Equipment</t>
   </si>
   <si>
@@ -46,46 +49,49 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>AI-Powered Quote Bot - Initial Setup and Configuration</t>
-  </si>
-  <si>
-    <t>Integration with NetSuite ERP</t>
-  </si>
-  <si>
-    <t>Integration with Google Workspace (Drive, BigQuery, Google Cloud Storage)</t>
-  </si>
-  <si>
-    <t>API connection for Hive Integration</t>
-  </si>
-  <si>
-    <t>Zoom API for Communications and data transmittal</t>
-  </si>
-  <si>
-    <t>AI Project Manager - Initial Scoping and Setup (40 hours)</t>
-  </si>
-  <si>
-    <t>AI Developer - Core Bot Development (160 hours)</t>
-  </si>
-  <si>
-    <t>Data Scientist - Model Training and Optimization (80 hours)</t>
-  </si>
-  <si>
-    <t>QA Testing and Refinement (40 hours)</t>
-  </si>
-  <si>
-    <t>Custom AI Model Training on Historical Event Data</t>
-  </si>
-  <si>
-    <t>NLP Engine Fine-Tuning for Event-Specific Terminology</t>
-  </si>
-  <si>
-    <t>UI/UX Design - Initial Mockups and Workflow (40 hours)</t>
-  </si>
-  <si>
-    <t>Content Creation and Refinement for Quote Output Templates</t>
-  </si>
-  <si>
-    <t>Initial Bot Training Data and Documentation</t>
+    <t>(2) 9’x16’ front projection screens</t>
+  </si>
+  <si>
+    <t>MT x Apexus 2024-2025 Series Equipment List (Attached)</t>
+  </si>
+  <si>
+    <t>(2) 3-phase dog houses with 60-amp each at the stage</t>
+  </si>
+  <si>
+    <t>(1) 3-phase dog houses with 60-amp at the tech table</t>
+  </si>
+  <si>
+    <t>(1) Technical Director / V1 Video Technician (6/8-6/11)</t>
+  </si>
+  <si>
+    <t>(1) A1 Audio Technician</t>
+  </si>
+  <si>
+    <t>(1) A2 Audio Technician</t>
+  </si>
+  <si>
+    <t>8’x18’x12’ stage</t>
+  </si>
+  <si>
+    <t>Pipe and drape for the stage</t>
+  </si>
+  <si>
+    <t>Apexus Answers Desk (2 x 6’ tables)</t>
+  </si>
+  <si>
+    <t>AV Desks at Back of Room (3 x 6’tables)</t>
+  </si>
+  <si>
+    <t>340B University Stand-Alone Event 2025 Request for Proposal (Line: Revisions, Ballroom notes section)</t>
+  </si>
+  <si>
+    <t>340B University Stand-Alone Event 2025 Request for Proposal (Line: AV List)</t>
+  </si>
+  <si>
+    <t>340B University Stand-Alone Event 2025 Request for Proposal (Line: Additions, Power)</t>
+  </si>
+  <si>
+    <t>340B University Stand-Alone Event 2025 Request for Proposal (Line: Additions, Apexus utilizes pipe and drape)</t>
   </si>
 </sst>
 </file>
@@ -443,20 +449,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="111.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,30 +479,36 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="E2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -506,217 +519,196 @@
       <c r="E3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>750</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>750</v>
+      </c>
+      <c r="E7">
+        <v>2250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>750</v>
+      </c>
+      <c r="E8">
+        <v>2250</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1500</v>
-      </c>
-      <c r="E6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>4000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>150</v>
       </c>
-      <c r="E7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>160</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>250</v>
-      </c>
-      <c r="E9">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>120</v>
-      </c>
-      <c r="E10">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>7500</v>
-      </c>
       <c r="E11">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="E12">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>450</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2500</v>
-      </c>
-      <c r="E14">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1000</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>104300</v>
+        <v>25150</v>
       </c>
     </row>
   </sheetData>

--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -8,14 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Terms" sheetId="2" r:id="rId2"/>
+    <sheet name="Venue and Logistics" sheetId="2" r:id="rId2"/>
+    <sheet name="AV Equipment" sheetId="3" r:id="rId3"/>
+    <sheet name="Labor" sheetId="4" r:id="rId4"/>
+    <sheet name="Supporting Services" sheetId="5" r:id="rId5"/>
+    <sheet name="Terms" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="155">
   <si>
     <t>Company Information</t>
   </si>
@@ -47,10 +51,418 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>2025-05-31</t>
-  </si>
-  <si>
-    <t>Q202505310215</t>
+    <t>Meeting Tomorrow</t>
+  </si>
+  <si>
+    <t>Chicago, IL 60630</t>
+  </si>
+  <si>
+    <t>MeetingTomorrow.com</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>Q202506010152</t>
+  </si>
+  <si>
+    <t>340B University for Manufacturers</t>
+  </si>
+  <si>
+    <t>Stand Alone Event 2025</t>
+  </si>
+  <si>
+    <t>Venue and Logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Venue Selection</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Guest Rooms</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reception Area</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ballroom</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Water Stations</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Charging Station</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Venue Sourcing and Negotiation (Philadelphia or New York)</t>
+  </si>
+  <si>
+    <t>Monday Night - Room Block (53 Rooms @ $279)</t>
+  </si>
+  <si>
+    <t>Tuesday Night - Room Block (15 Rooms @ $279)</t>
+  </si>
+  <si>
+    <t>Rooming List Management and Coordination</t>
+  </si>
+  <si>
+    <t>Housing Link Setup and Management</t>
+  </si>
+  <si>
+    <t>Reception Area Rental (Space for 75)</t>
+  </si>
+  <si>
+    <t>Reception F&amp;B Package (75 Guests)</t>
+  </si>
+  <si>
+    <t>Reception Setup and Teardown Labor (2 Technicians, 4 hours)</t>
+  </si>
+  <si>
+    <t>Ballroom Rental (Adequate Space for 150)</t>
+  </si>
+  <si>
+    <t>Crescent Round Table (Set of 7 Chairs per Table)</t>
+  </si>
+  <si>
+    <t>Water Dispenser Rental</t>
+  </si>
+  <si>
+    <t>5 Gallon Water Bottle</t>
+  </si>
+  <si>
+    <t>Disposable Cups</t>
+  </si>
+  <si>
+    <t>Mobile Charging Station Rental</t>
+  </si>
+  <si>
+    <t>Price Level</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>14787.0</t>
+  </si>
+  <si>
+    <t>4185.0</t>
+  </si>
+  <si>
+    <t>5625.0</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>Source Document</t>
+  </si>
+  <si>
+    <t>340B University RFP</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>Line Reference</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Guest Rooms - 2025 Assumptions</t>
+  </si>
+  <si>
+    <t>Billing Arrangements</t>
+  </si>
+  <si>
+    <t>Function Information Agenda - 2025 Reception</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Function Information Agenda - 2025 Ballroom</t>
+  </si>
+  <si>
+    <t>AV Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Main Equipment</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cables and Connectors</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Power Distribution</t>
+  </si>
+  <si>
+    <t>Projector, 10,000 Lumen LCD Projector</t>
+  </si>
+  <si>
+    <t>Projector Lens - Standard Throw</t>
+  </si>
+  <si>
+    <t>Projector Rigging and Mounting</t>
+  </si>
+  <si>
+    <t>Screen, Fast-Fold Deluxe Screen (8'x18')</t>
+  </si>
+  <si>
+    <t>Digital Mixing Console (32 Channel)</t>
+  </si>
+  <si>
+    <t>Powered Loudspeaker (Pair)</t>
+  </si>
+  <si>
+    <t>Wireless Handheld Microphone</t>
+  </si>
+  <si>
+    <t>Wired Microphone for Lectern</t>
+  </si>
+  <si>
+    <t>Microphone Stand</t>
+  </si>
+  <si>
+    <t>Projector Spare Lamp</t>
+  </si>
+  <si>
+    <t>Screen Dress Kit (Black)</t>
+  </si>
+  <si>
+    <t>Power Conditioner</t>
+  </si>
+  <si>
+    <t>HDMI Cable, 25ft</t>
+  </si>
+  <si>
+    <t>XLR Cable, 25ft</t>
+  </si>
+  <si>
+    <t>Power Extension Cord, 25ft</t>
+  </si>
+  <si>
+    <t>Power Strip, Surge Protector</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>2400.0</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Technical Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Setup Labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Warehouse Labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Travel Time</t>
+  </si>
+  <si>
+    <t>AV Technician</t>
+  </si>
+  <si>
+    <t>Audio Engineer</t>
+  </si>
+  <si>
+    <t>Stagehand</t>
+  </si>
+  <si>
+    <t>Warehouse Technician</t>
+  </si>
+  <si>
+    <t>Setup and Operation</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Teardown and Packout</t>
+  </si>
+  <si>
+    <t>Sound Check and Operation</t>
+  </si>
+  <si>
+    <t>Assist with Stage Setup</t>
+  </si>
+  <si>
+    <t>Equipment Prep and Testing</t>
+  </si>
+  <si>
+    <t>Travel Time for AV Technicians</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>680.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>Supporting Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Freight and Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Equipment Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Consumables</t>
+  </si>
+  <si>
+    <t>Roundtrip Freight to Philadelphia/New York</t>
+  </si>
+  <si>
+    <t>Shipping Insurance</t>
+  </si>
+  <si>
+    <t>Gaffer's Tape</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Cable Ties</t>
   </si>
   <si>
     <t>Terms and Conditions</t>
@@ -65,23 +477,24 @@
     <t>Total Amount</t>
   </si>
   <si>
-    <t>Net 30</t>
+    <t>Net 30 days</t>
   </si>
   <si>
     <t>30 days</t>
   </si>
   <si>
-    <t>$0.00</t>
+    <t>$43,362.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +510,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,7 +574,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,19 +897,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
@@ -493,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -501,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -518,13 +957,17 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
@@ -536,6 +979,1954 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5">
+        <v>279</v>
+      </c>
+      <c r="F8" s="5">
+        <v>14787</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5">
+        <v>279</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4185</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5">
+        <v>500</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5">
+        <v>400</v>
+      </c>
+      <c r="F11" s="5">
+        <v>400</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
+        <v>800</v>
+      </c>
+      <c r="F15" s="5">
+        <v>800</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5">
+        <v>75</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5625</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5">
+        <v>600</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>300</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>150</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5">
+        <v>300</v>
+      </c>
+      <c r="F32" s="5">
+        <v>300</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5">
+        <v>250</v>
+      </c>
+      <c r="F5" s="5">
+        <v>500</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>300</v>
+      </c>
+      <c r="F6" s="5">
+        <v>600</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5">
+        <v>800</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5">
+        <v>800</v>
+      </c>
+      <c r="F8" s="5">
+        <v>800</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5">
+        <v>400</v>
+      </c>
+      <c r="F9" s="5">
+        <v>800</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5">
+        <v>250</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5">
+        <v>150</v>
+      </c>
+      <c r="F11" s="5">
+        <v>150</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>150</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5">
+        <v>150</v>
+      </c>
+      <c r="F16" s="5">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5">
+        <v>75</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5">
+        <v>120</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5">
+        <v>25</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5">
+        <v>600</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5">
+        <v>600</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>75</v>
+      </c>
+      <c r="F6" s="5">
+        <v>300</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5">
+        <v>85</v>
+      </c>
+      <c r="F7" s="5">
+        <v>680</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5">
+        <v>85</v>
+      </c>
+      <c r="F8" s="5">
+        <v>680</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5">
+        <v>340</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5">
+        <v>240</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5">
+        <v>220</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5">
+        <v>300</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1200</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5">
+        <v>150</v>
+      </c>
+      <c r="F5" s="5">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5">
+        <v>400</v>
+      </c>
+      <c r="F9" s="5">
+        <v>400</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -549,24 +2940,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -575,10 +2966,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>151</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -7,14 +7,39 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Terms" sheetId="1" r:id="rId1"/>
+    <sheet name="Quotation" sheetId="1" r:id="rId1"/>
+    <sheet name="Terms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price Level</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Source Document</t>
+  </si>
+  <si>
+    <t>Line Reference</t>
+  </si>
   <si>
     <t>Terms and Conditions</t>
   </si>
@@ -44,8 +69,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,9 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,9 +443,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -418,37 +493,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -7,69 +7,443 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Quotation" sheetId="1" r:id="rId1"/>
-    <sheet name="Terms" sheetId="2" r:id="rId2"/>
+    <sheet name="General Session - Plaza Ballroo" sheetId="1" r:id="rId1"/>
+    <sheet name="Breakout Sessions" sheetId="2" r:id="rId2"/>
+    <sheet name="Additional Items" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="140">
+  <si>
+    <t>General Session - Plaza Ballroom A+B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pre-Production</t>
+  </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
+    <t xml:space="preserve">  Video Projection and Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Display &amp; Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Set Elements &amp; Stage Furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rigging, Truss, Hardware, Labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Power &amp; Power Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Internet Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Live Closed Captioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Shipping, Travel &amp; Logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IMAG (Separate Line Item)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Event Labor</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Project Management &amp; Coordination</t>
+  </si>
+  <si>
+    <t>Site Survey &amp; Venue Coordination</t>
+  </si>
+  <si>
+    <t>CAD Renderings of Stage Design (3 Options)</t>
+  </si>
+  <si>
+    <t>Run of Show (ROS) Timeline Creation</t>
+  </si>
+  <si>
+    <t>Labor Grid Creation and Management</t>
+  </si>
+  <si>
+    <t>Speaker Ready Room Setup &amp; Management</t>
+  </si>
+  <si>
+    <t>Content Review and Formatting Assistance</t>
+  </si>
+  <si>
+    <t>Barco UDX-4K32 Projector (31,000 Lumens)</t>
+  </si>
+  <si>
+    <t>Projector Lens - Short Throw</t>
+  </si>
+  <si>
+    <t>Projector Rigging &amp; Safety Cables</t>
+  </si>
+  <si>
+    <t>Decimator MD-HX HDMI to SDI Converter</t>
+  </si>
+  <si>
+    <t>Blackmagic ATEM Production Studio 4K Live Switcher</t>
+  </si>
+  <si>
+    <t>Blackmagic SmartView 4K Monitor</t>
+  </si>
+  <si>
+    <t>7.5' x 10' Screen - Fast Fold with Dress Kit</t>
+  </si>
+  <si>
+    <t>Backup Projector Lamp</t>
+  </si>
+  <si>
+    <t>HDMI Cables - Assorted Lengths</t>
+  </si>
+  <si>
+    <t>BNC Cables - Assorted Lengths</t>
+  </si>
+  <si>
+    <t>MacBook Pro Laptop with Keynote</t>
+  </si>
+  <si>
+    <t>Confidence Monitor - 24" LED</t>
+  </si>
+  <si>
+    <t>Downstage Timer</t>
+  </si>
+  <si>
+    <t>Backup MacBook Pro Laptop with Keynote</t>
+  </si>
+  <si>
+    <t>Clicker/Presenter with Laser Pointer</t>
+  </si>
+  <si>
+    <t>Yamaha CL5 Digital Mixing Console</t>
+  </si>
+  <si>
+    <t>Shure ULXD4Q Quad Channel Digital Wireless Receiver</t>
+  </si>
+  <si>
+    <t>Shure ULXD1 Bodypack Transmitter</t>
+  </si>
+  <si>
+    <t>DPA Lav Microphone</t>
+  </si>
+  <si>
+    <t>Shure Handheld Wireless Microphone</t>
+  </si>
+  <si>
+    <t>JBL SRX835P 15" Powered Loudspeaker</t>
+  </si>
+  <si>
+    <t>JBL SRX818SP 18" Powered Subwoofer</t>
+  </si>
+  <si>
+    <t>Speaker Stands</t>
+  </si>
+  <si>
+    <t>Audio Snake - 50ft</t>
+  </si>
+  <si>
+    <t>XLR Cables - Assorted Lengths</t>
+  </si>
+  <si>
+    <t>Chauvet Professional Ovation E-910FC LED Ellipsoidal</t>
+  </si>
+  <si>
+    <t>ETC ColorSource PAR LED Fixture</t>
+  </si>
+  <si>
+    <t>ETC Element 2 Lighting Console</t>
+  </si>
+  <si>
+    <t>Lighting Stands</t>
+  </si>
+  <si>
+    <t>DMX Cables - Assorted Lengths</t>
+  </si>
+  <si>
+    <t>Gels - Assorted Colors</t>
+  </si>
+  <si>
+    <t>Curved Cyc Wall (20ft x 10ft)</t>
+  </si>
+  <si>
+    <t>Stools (Panel Segment)</t>
+  </si>
+  <si>
+    <t>Coffee Table (Panel Segment)</t>
+  </si>
+  <si>
+    <t>Podium - Black</t>
+  </si>
+  <si>
+    <t>Drape (Black)</t>
+  </si>
+  <si>
+    <t>Rigging Points (In-House Vendor)</t>
+  </si>
+  <si>
+    <t>Truss (10ft Sections)</t>
+  </si>
+  <si>
+    <t>Chain Hoists</t>
+  </si>
+  <si>
+    <t>Rigging Hardware (Shackles, Wire Rope)</t>
+  </si>
+  <si>
+    <t>In-House Rigger (8 hours)</t>
+  </si>
+  <si>
+    <t>Power Drop (In-House Vendor)</t>
+  </si>
+  <si>
+    <t>Power Distribution Unit (PDU)</t>
+  </si>
+  <si>
+    <t>Extension Cords and Power Strips</t>
+  </si>
+  <si>
+    <t>In-House Electrician (8 hours)</t>
+  </si>
+  <si>
+    <t>Dedicated Internet Line (In-House Vendor)</t>
+  </si>
+  <si>
+    <t>Backup Cellular Bonding Service</t>
+  </si>
+  <si>
+    <t>Router and Network Configuration</t>
+  </si>
+  <si>
+    <t>Closed Captioning Service (Recording Only)</t>
+  </si>
+  <si>
+    <t>Freight and Shipping (Round Trip)</t>
+  </si>
+  <si>
+    <t>Technician Travel (Round Trip Airfare)</t>
+  </si>
+  <si>
+    <t>Technician Hotel (3 Nights)</t>
+  </si>
+  <si>
+    <t>Technician Per Diem (3 Days)</t>
+  </si>
+  <si>
+    <t>HD Camera Package (Sony)</t>
+  </si>
+  <si>
+    <t>Camera Lens - Zoom</t>
+  </si>
+  <si>
+    <t>Camera Tripod</t>
+  </si>
+  <si>
+    <t>SDI Cables - Assorted Lengths</t>
+  </si>
+  <si>
+    <t>Technical Director (TD) - 2 Days</t>
+  </si>
+  <si>
+    <t>Audio Engineer (A1) - 2 Days</t>
+  </si>
+  <si>
+    <t>Audio Technician (A2) - 2 Days</t>
+  </si>
+  <si>
+    <t>Lighting Technician - 2 Days</t>
+  </si>
+  <si>
+    <t>Camera Operator - 2 Days</t>
+  </si>
+  <si>
+    <t>Graphics Operator - 2 Days</t>
+  </si>
+  <si>
+    <t>Stagehands - Load-In &amp; Load-Out</t>
+  </si>
+  <si>
     <t>Price Level</t>
   </si>
   <si>
+    <t>Standard</t>
+  </si>
+  <si>
     <t>Unit Price</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Source Document</t>
-  </si>
-  <si>
-    <t>Line Reference</t>
-  </si>
-  <si>
-    <t>Terms and Conditions</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Fidelity RFP</t>
+  </si>
+  <si>
+    <t>Fidelity Discovery Call Notes</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>Staging / Creative</t>
+  </si>
+  <si>
+    <t>Page 3</t>
+  </si>
+  <si>
+    <t>Budget &amp; Timeline</t>
+  </si>
+  <si>
+    <t>General Session</t>
+  </si>
+  <si>
+    <t>Internet / Virtual Speakers</t>
+  </si>
+  <si>
+    <t>Labor &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Breakout Sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Equipment per Room (5 Rooms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Labor</t>
+  </si>
+  <si>
+    <t>6' Screen</t>
+  </si>
+  <si>
+    <t>Short-Throw Projector</t>
+  </si>
+  <si>
+    <t>Projector Mount</t>
+  </si>
+  <si>
+    <t>Wireless Microphone</t>
+  </si>
+  <si>
+    <t>Small Speaker</t>
+  </si>
+  <si>
+    <t>HDMI Cables - 25ft</t>
+  </si>
+  <si>
+    <t>Breakout Room Technician (8am-5pm)</t>
+  </si>
+  <si>
+    <t>Breakouts</t>
+  </si>
+  <si>
+    <t>Additional Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Miscellaneous</t>
+  </si>
+  <si>
+    <t>Consumables (Gaffer Tape, Batteries, etc.)</t>
+  </si>
+  <si>
+    <t>Equipment Prep and Testing</t>
+  </si>
+  <si>
+    <t>Warehouse Pulls</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Inferred</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Company Information</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Client Information</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Terms</t>
   </si>
   <si>
     <t>Payment Terms</t>
   </si>
   <si>
-    <t>Validity Period</t>
+    <t>Validity</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>Net 30</t>
+    <t>BlueLabel Production Group</t>
+  </si>
+  <si>
+    <t>123 Main Street, Anytown, USA</t>
+  </si>
+  <si>
+    <t>Jordan (BlueLabel)</t>
+  </si>
+  <si>
+    <t>Fidelity Investments</t>
+  </si>
+  <si>
+    <t>PI Distribution Fall ELT</t>
+  </si>
+  <si>
+    <t>Net 30 days</t>
   </si>
   <si>
     <t>30 days</t>
   </si>
   <si>
-    <t>$0.00</t>
+    <t>$79,520.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,38 +451,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,39 +468,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,36 +768,2054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>750</v>
+      </c>
+      <c r="F5">
+        <v>750</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>350</v>
+      </c>
+      <c r="F7">
+        <v>350</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <v>250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>800</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>1200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>2500</v>
+      </c>
+      <c r="F13">
+        <v>5000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>450</v>
+      </c>
+      <c r="F14">
+        <v>900</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>175</v>
+      </c>
+      <c r="F16">
+        <v>350</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+      <c r="F17">
+        <v>1200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>350</v>
+      </c>
+      <c r="F18">
+        <v>700</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>800</v>
+      </c>
+      <c r="F19">
+        <v>1600</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>450</v>
+      </c>
+      <c r="F25">
+        <v>450</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>400</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <v>150</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28">
+        <v>225</v>
+      </c>
+      <c r="F28">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32">
+        <v>900</v>
+      </c>
+      <c r="F32">
+        <v>900</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>500</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34">
+        <v>175</v>
+      </c>
+      <c r="F34">
+        <v>1400</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35">
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>1200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36">
+        <v>250</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37">
+        <v>400</v>
+      </c>
+      <c r="F37">
+        <v>1600</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>450</v>
+      </c>
+      <c r="F38">
+        <v>900</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40">
+        <v>75</v>
+      </c>
+      <c r="F40">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>180</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>2400</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45">
+        <v>150</v>
+      </c>
+      <c r="F45">
+        <v>1200</v>
+      </c>
+      <c r="G45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52">
+        <v>3500</v>
+      </c>
+      <c r="F52">
+        <v>3500</v>
+      </c>
+      <c r="G52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>300</v>
+      </c>
+      <c r="G53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>200</v>
+      </c>
+      <c r="G54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55">
+        <v>150</v>
+      </c>
+      <c r="F55">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <v>1000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>800</v>
+      </c>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60">
+        <v>150</v>
+      </c>
+      <c r="F60">
+        <v>600</v>
+      </c>
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>400</v>
+      </c>
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62">
+        <v>200</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63">
+        <v>95</v>
+      </c>
+      <c r="F63">
+        <v>1520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66">
+        <v>400</v>
+      </c>
+      <c r="F66">
+        <v>800</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67">
+        <v>200</v>
+      </c>
+      <c r="F67">
+        <v>400</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69">
+        <v>95</v>
+      </c>
+      <c r="F69">
+        <v>1520</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72">
+        <v>1500</v>
+      </c>
+      <c r="F72">
+        <v>1500</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73">
+        <v>750</v>
+      </c>
+      <c r="F73">
+        <v>750</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74">
+        <v>250</v>
+      </c>
+      <c r="F74">
+        <v>250</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77">
+        <v>800</v>
+      </c>
+      <c r="F77">
+        <v>800</v>
+      </c>
+      <c r="G77" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80">
+        <v>1800</v>
+      </c>
+      <c r="F80">
+        <v>1800</v>
+      </c>
+      <c r="G80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81">
+        <v>400</v>
+      </c>
+      <c r="F81">
+        <v>1600</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82">
+        <v>250</v>
+      </c>
+      <c r="F82">
+        <v>3000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83">
+        <v>75</v>
+      </c>
+      <c r="F83">
+        <v>900</v>
+      </c>
+      <c r="G83" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86">
+        <v>900</v>
+      </c>
+      <c r="F86">
+        <v>2700</v>
+      </c>
+      <c r="G86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87">
+        <v>200</v>
+      </c>
+      <c r="F87">
+        <v>600</v>
+      </c>
+      <c r="G87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88">
+        <v>75</v>
+      </c>
+      <c r="F88">
+        <v>225</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <v>15</v>
+      </c>
+      <c r="F89">
+        <v>45</v>
+      </c>
+      <c r="G89" t="s">
+        <v>93</v>
+      </c>
+      <c r="H89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92">
+        <v>125</v>
+      </c>
+      <c r="F92">
+        <v>2000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>94</v>
+      </c>
+      <c r="H92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93">
+        <v>110</v>
+      </c>
+      <c r="F93">
+        <v>1760</v>
+      </c>
+      <c r="G93" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94">
+        <v>95</v>
+      </c>
+      <c r="F94">
+        <v>1520</v>
+      </c>
+      <c r="G94" t="s">
+        <v>94</v>
+      </c>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95">
+        <v>95</v>
+      </c>
+      <c r="F95">
+        <v>1520</v>
+      </c>
+      <c r="G95" t="s">
+        <v>94</v>
+      </c>
+      <c r="H95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+      <c r="F96">
+        <v>4560</v>
+      </c>
+      <c r="G96" t="s">
+        <v>94</v>
+      </c>
+      <c r="H96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>89</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <v>1600</v>
+      </c>
+      <c r="G97" t="s">
+        <v>94</v>
+      </c>
+      <c r="H97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98">
+        <v>85</v>
+      </c>
+      <c r="F98">
+        <v>2720</v>
+      </c>
+      <c r="G98" t="s">
+        <v>94</v>
+      </c>
+      <c r="H98" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -482,48 +2825,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>750</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>450</v>
+      </c>
+      <c r="F5">
+        <v>2250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>750</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>4275</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>1200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
